--- a/Code/R/RWithSQLServer/Example Data/ImportedData/AwardingGroup13.xlsx
+++ b/Code/R/RWithSQLServer/Example Data/ImportedData/AwardingGroup13.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ScholarshipName</t>
   </si>
@@ -31,111 +31,6 @@
   </si>
   <si>
     <t>ApplicantRanking</t>
-  </si>
-  <si>
-    <t>6025.25</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>4776.53</t>
-  </si>
-  <si>
-    <t>2666.77</t>
-  </si>
-  <si>
-    <t>2419.29</t>
-  </si>
-  <si>
-    <t>2333.33</t>
-  </si>
-  <si>
-    <t>2189.79</t>
-  </si>
-  <si>
-    <t>2179.59</t>
-  </si>
-  <si>
-    <t>1889.81</t>
-  </si>
-  <si>
-    <t>1857.56</t>
-  </si>
-  <si>
-    <t>1764.52</t>
-  </si>
-  <si>
-    <t>1382.81</t>
-  </si>
-  <si>
-    <t>1299.86</t>
-  </si>
-  <si>
-    <t>1276.95</t>
-  </si>
-  <si>
-    <t>1225.54</t>
-  </si>
-  <si>
-    <t>1192.75</t>
-  </si>
-  <si>
-    <t>1048.52</t>
-  </si>
-  <si>
-    <t>1047.52</t>
-  </si>
-  <si>
-    <t>1012.7</t>
-  </si>
-  <si>
-    <t>767.86</t>
-  </si>
-  <si>
-    <t>765.59</t>
-  </si>
-  <si>
-    <t>710.68</t>
-  </si>
-  <si>
-    <t>703.52</t>
-  </si>
-  <si>
-    <t>626.32</t>
-  </si>
-  <si>
-    <t>624.72</t>
-  </si>
-  <si>
-    <t>573.9</t>
-  </si>
-  <si>
-    <t>517.23</t>
-  </si>
-  <si>
-    <t>512.4</t>
-  </si>
-  <si>
-    <t>498.7</t>
-  </si>
-  <si>
-    <t>485.4</t>
-  </si>
-  <si>
-    <t>415.54</t>
-  </si>
-  <si>
-    <t>385.68</t>
-  </si>
-  <si>
-    <t>326.83</t>
-  </si>
-  <si>
-    <t>315.04</t>
-  </si>
-  <si>
-    <t>233</t>
   </si>
 </sst>
 </file>
@@ -455,7 +350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -477,50 +374,50 @@
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>6025.25</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <v>6025.25</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>6025.25</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>6025.25</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -533,470 +430,470 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>6025.25</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7">
+        <v>6025.25</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8">
+        <v>6025.25</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="B9">
+        <v>6000</v>
       </c>
       <c r="C9">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
+      <c r="B10">
+        <v>6000</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
+      <c r="B11">
+        <v>6000</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
+      <c r="B12">
+        <v>6000</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
+      <c r="B13">
+        <v>4776.53</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14">
+        <v>4776.53</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B15">
+        <v>4776.53</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16">
+        <v>4776.53</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>4776.53</v>
+      </c>
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>35</v>
-      </c>
       <c r="D17">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18">
+        <v>4776.53</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
+      <c r="B19">
+        <v>4776.53</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
+      <c r="B20">
+        <v>4776.53</v>
       </c>
       <c r="C20">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
+      <c r="B21">
+        <v>4776.53</v>
       </c>
       <c r="C21">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
+      <c r="B22">
+        <v>4776.53</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
+      <c r="B23">
+        <v>4776.53</v>
       </c>
       <c r="C23">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
+      <c r="B24">
+        <v>4776.53</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
+      <c r="B25">
+        <v>4776.53</v>
       </c>
       <c r="C25">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
+      <c r="B26">
+        <v>4776.53</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
+      <c r="B27">
+        <v>4776.53</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
+      <c r="B28">
+        <v>4776.53</v>
       </c>
       <c r="C28">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
+      <c r="B29">
+        <v>4776.53</v>
       </c>
       <c r="C29">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
+      <c r="B30">
+        <v>4776.53</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
+      <c r="B31">
+        <v>4776.53</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>55</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
+      <c r="B32">
+        <v>4776.53</v>
       </c>
       <c r="C32">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D32">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>55</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
+      <c r="B33">
+        <v>4776.53</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D33">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>55</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
+      <c r="B34">
+        <v>4776.53</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>55</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>4776.53</v>
+      </c>
+      <c r="C35">
         <v>6</v>
       </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
       <c r="D35">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
+      <c r="B36">
+        <v>4776.53</v>
       </c>
       <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
         <v>27</v>
-      </c>
-      <c r="D36">
-        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>55</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
+      <c r="B37">
+        <v>4776.53</v>
       </c>
       <c r="C37">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
+      <c r="B38">
+        <v>4776.53</v>
       </c>
       <c r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>55</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39">
+        <v>4776.53</v>
       </c>
       <c r="C39">
         <v>66</v>
@@ -1009,232 +906,232 @@
       <c r="A40">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
+      <c r="B40">
+        <v>4776.53</v>
       </c>
       <c r="C40">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
+      <c r="B41">
+        <v>4776.53</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>55</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
+      <c r="B42">
+        <v>4776.53</v>
       </c>
       <c r="C42">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>55</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
+      <c r="B43">
+        <v>4776.53</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>55</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44">
+        <v>4776.53</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>55</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
+      <c r="B45">
+        <v>4776.53</v>
       </c>
       <c r="C45">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>55</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
+      <c r="B46">
+        <v>4776.53</v>
       </c>
       <c r="C46">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
+      <c r="B47">
+        <v>4776.53</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48">
+        <v>4776.53</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>56</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
+      <c r="B49">
+        <v>4776.53</v>
       </c>
       <c r="C49">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D49">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
+      <c r="B50">
+        <v>4776.53</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D50">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
+      <c r="B51">
+        <v>4776.53</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>4776.53</v>
+      </c>
+      <c r="C52">
         <v>6</v>
       </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
       <c r="D52">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
+      <c r="B53">
+        <v>4776.53</v>
       </c>
       <c r="C53">
+        <v>75</v>
+      </c>
+      <c r="D53">
         <v>27</v>
-      </c>
-      <c r="D53">
-        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
+      <c r="B54">
+        <v>4776.53</v>
       </c>
       <c r="C54">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
+      <c r="B55">
+        <v>4776.53</v>
       </c>
       <c r="C55">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D55">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
+      <c r="B56">
+        <v>4776.53</v>
       </c>
       <c r="C56">
         <v>66</v>
@@ -1247,554 +1144,554 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
+      <c r="B57">
+        <v>4776.53</v>
       </c>
       <c r="C57">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
+      <c r="B58">
+        <v>4776.53</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
+      <c r="B59">
+        <v>4776.53</v>
       </c>
       <c r="C59">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
+      <c r="B60">
+        <v>4776.53</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>56</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
+      <c r="B61">
+        <v>4776.53</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>56</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
+      <c r="B62">
+        <v>4776.53</v>
       </c>
       <c r="C62">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>56</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
+      <c r="B63">
+        <v>4776.53</v>
       </c>
       <c r="C63">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>56</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
+      <c r="B64">
+        <v>4776.53</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
+      <c r="B65">
+        <v>2666.77</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
+      <c r="B66">
+        <v>2666.77</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D66">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
+      <c r="B67">
+        <v>2666.77</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
+      <c r="B68">
+        <v>2666.77</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D68">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
+      <c r="B69">
+        <v>2666.77</v>
       </c>
       <c r="C69">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10</v>
       </c>
-      <c r="B70" t="s">
-        <v>7</v>
+      <c r="B70">
+        <v>2666.77</v>
       </c>
       <c r="C70">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>34</v>
       </c>
-      <c r="B71" t="s">
-        <v>8</v>
+      <c r="B71">
+        <v>2419.29</v>
       </c>
       <c r="C71">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D71">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>34</v>
       </c>
-      <c r="B72" t="s">
-        <v>8</v>
+      <c r="B72">
+        <v>2419.29</v>
       </c>
       <c r="C72">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D72">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>34</v>
       </c>
-      <c r="B73" t="s">
-        <v>8</v>
+      <c r="B73">
+        <v>2419.29</v>
       </c>
       <c r="C73">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D73">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>34</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
+      <c r="B74">
+        <v>2419.29</v>
       </c>
       <c r="C74">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D74">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>34</v>
       </c>
-      <c r="B75" t="s">
-        <v>8</v>
+      <c r="B75">
+        <v>2419.29</v>
       </c>
       <c r="C75">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D75">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>34</v>
       </c>
-      <c r="B76" t="s">
-        <v>8</v>
+      <c r="B76">
+        <v>2419.29</v>
       </c>
       <c r="C76">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D76">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>34</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
+      <c r="B77">
+        <v>2419.29</v>
       </c>
       <c r="C77">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>34</v>
       </c>
-      <c r="B78" t="s">
-        <v>8</v>
+      <c r="B78">
+        <v>2419.29</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
-      <c r="B79" t="s">
-        <v>9</v>
+      <c r="B79">
+        <v>2333.33</v>
       </c>
       <c r="C79">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D79">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
-      <c r="B80" t="s">
-        <v>9</v>
+      <c r="B80">
+        <v>2333.33</v>
       </c>
       <c r="C80">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D80">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>2333.33</v>
+      </c>
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
         <v>9</v>
-      </c>
-      <c r="C81">
-        <v>90</v>
-      </c>
-      <c r="D81">
-        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
-      <c r="B82" t="s">
-        <v>9</v>
+      <c r="B82">
+        <v>2333.33</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D82">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
-      <c r="B83" t="s">
-        <v>9</v>
+      <c r="B83">
+        <v>2333.33</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D83">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
-      <c r="B84" t="s">
-        <v>9</v>
+      <c r="B84">
+        <v>2333.33</v>
       </c>
       <c r="C84">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D84">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
-      <c r="B85" t="s">
-        <v>9</v>
+      <c r="B85">
+        <v>2333.33</v>
       </c>
       <c r="C85">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D85">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
-      <c r="B86" t="s">
-        <v>9</v>
+      <c r="B86">
+        <v>2333.33</v>
       </c>
       <c r="C86">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D86">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
-      <c r="B87" t="s">
-        <v>9</v>
+      <c r="B87">
+        <v>2333.33</v>
       </c>
       <c r="C87">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
-      <c r="B88" t="s">
-        <v>9</v>
+      <c r="B88">
+        <v>2333.33</v>
       </c>
       <c r="C88">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D88">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
-      <c r="B89" t="s">
-        <v>9</v>
+      <c r="B89">
+        <v>2333.33</v>
       </c>
       <c r="C89">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D89">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
-      <c r="B90" t="s">
-        <v>9</v>
+      <c r="B90">
+        <v>2333.33</v>
       </c>
       <c r="C90">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
-      <c r="B91" t="s">
-        <v>9</v>
+      <c r="B91">
+        <v>2333.33</v>
       </c>
       <c r="C91">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
-      <c r="B92" t="s">
-        <v>9</v>
+      <c r="B92">
+        <v>2333.33</v>
       </c>
       <c r="C92">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
-      <c r="B93" t="s">
-        <v>9</v>
+      <c r="B93">
+        <v>2333.33</v>
       </c>
       <c r="C93">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D93">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
-      <c r="B94" t="s">
-        <v>9</v>
+      <c r="B94">
+        <v>2333.33</v>
       </c>
       <c r="C94">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D94">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
-      <c r="B95" t="s">
-        <v>9</v>
+      <c r="B95">
+        <v>2333.33</v>
       </c>
       <c r="C95">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D95">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
-      <c r="B96" t="s">
-        <v>9</v>
+      <c r="B96">
+        <v>2333.33</v>
       </c>
       <c r="C96">
         <v>82</v>
@@ -1807,162 +1704,162 @@
       <c r="A97">
         <v>5</v>
       </c>
-      <c r="B97" t="s">
-        <v>9</v>
+      <c r="B97">
+        <v>2333.33</v>
       </c>
       <c r="C97">
+        <v>43</v>
+      </c>
+      <c r="D97">
         <v>65</v>
-      </c>
-      <c r="D97">
-        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
-      <c r="B98" t="s">
-        <v>9</v>
+      <c r="B98">
+        <v>2333.33</v>
       </c>
       <c r="C98">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D98">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
-      <c r="B99" t="s">
-        <v>9</v>
+      <c r="B99">
+        <v>2333.33</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
-      <c r="B100" t="s">
-        <v>9</v>
+      <c r="B100">
+        <v>2333.33</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D100">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6</v>
       </c>
-      <c r="B101" t="s">
-        <v>9</v>
+      <c r="B101">
+        <v>2333.33</v>
       </c>
       <c r="C101">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D101">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6</v>
       </c>
-      <c r="B102" t="s">
-        <v>9</v>
+      <c r="B102">
+        <v>2333.33</v>
       </c>
       <c r="C102">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D102">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
-      <c r="B103" t="s">
-        <v>9</v>
+      <c r="B103">
+        <v>2333.33</v>
       </c>
       <c r="C103">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D103">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6</v>
       </c>
-      <c r="B104" t="s">
-        <v>9</v>
+      <c r="B104">
+        <v>2333.33</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D104">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
-      <c r="B105" t="s">
-        <v>9</v>
+      <c r="B105">
+        <v>2333.33</v>
       </c>
       <c r="C105">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D105">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6</v>
       </c>
-      <c r="B106" t="s">
-        <v>9</v>
+      <c r="B106">
+        <v>2333.33</v>
       </c>
       <c r="C106">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D106">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6</v>
       </c>
-      <c r="B107" t="s">
-        <v>9</v>
+      <c r="B107">
+        <v>2333.33</v>
       </c>
       <c r="C107">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="D107">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6</v>
       </c>
-      <c r="B108" t="s">
-        <v>9</v>
+      <c r="B108">
+        <v>2333.33</v>
       </c>
       <c r="C108">
         <v>26</v>
@@ -1975,792 +1872,792 @@
       <c r="A109">
         <v>6</v>
       </c>
-      <c r="B109" t="s">
-        <v>9</v>
+      <c r="B109">
+        <v>2333.33</v>
       </c>
       <c r="C109">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D109">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
-      <c r="B110" t="s">
-        <v>9</v>
+      <c r="B110">
+        <v>2333.33</v>
       </c>
       <c r="C110">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D110">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
-      <c r="B111" t="s">
-        <v>9</v>
+      <c r="B111">
+        <v>2333.33</v>
       </c>
       <c r="C111">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="D111">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
-      <c r="B112" t="s">
-        <v>9</v>
+      <c r="B112">
+        <v>2333.33</v>
       </c>
       <c r="C112">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
-      <c r="B113" t="s">
-        <v>9</v>
+      <c r="B113">
+        <v>2333.33</v>
       </c>
       <c r="C113">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D113">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>6</v>
       </c>
-      <c r="B114" t="s">
-        <v>9</v>
+      <c r="B114">
+        <v>2333.33</v>
       </c>
       <c r="C114">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
-      <c r="B115" t="s">
-        <v>9</v>
+      <c r="B115">
+        <v>2333.33</v>
       </c>
       <c r="C115">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6</v>
       </c>
-      <c r="B116" t="s">
-        <v>9</v>
+      <c r="B116">
+        <v>2333.33</v>
       </c>
       <c r="C116">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7</v>
       </c>
-      <c r="B117" t="s">
-        <v>9</v>
+      <c r="B117">
+        <v>2333.33</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D117">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7</v>
       </c>
-      <c r="B118" t="s">
-        <v>9</v>
+      <c r="B118">
+        <v>2333.33</v>
       </c>
       <c r="C118">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D118">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
-      <c r="B119" t="s">
-        <v>9</v>
+      <c r="B119">
+        <v>2333.33</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D119">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
-      <c r="B120" t="s">
-        <v>9</v>
+      <c r="B120">
+        <v>2333.33</v>
       </c>
       <c r="C120">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D120">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7</v>
       </c>
-      <c r="B121" t="s">
-        <v>9</v>
+      <c r="B121">
+        <v>2333.33</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D121">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
-      <c r="B122" t="s">
-        <v>9</v>
+      <c r="B122">
+        <v>2333.33</v>
       </c>
       <c r="C122">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D122">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
-      <c r="B123" t="s">
-        <v>9</v>
+      <c r="B123">
+        <v>2333.33</v>
       </c>
       <c r="C123">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D123">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7</v>
       </c>
-      <c r="B124" t="s">
-        <v>9</v>
+      <c r="B124">
+        <v>2333.33</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D124">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
-      <c r="B125" t="s">
-        <v>9</v>
+      <c r="B125">
+        <v>2333.33</v>
       </c>
       <c r="C125">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D125">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
-      <c r="B126" t="s">
-        <v>9</v>
+      <c r="B126">
+        <v>2333.33</v>
       </c>
       <c r="C126">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D126">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
-        <v>9</v>
+      <c r="B127">
+        <v>2333.33</v>
       </c>
       <c r="C127">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D127">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
-      <c r="B128" t="s">
-        <v>9</v>
+      <c r="B128">
+        <v>2333.33</v>
       </c>
       <c r="C128">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D128">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7</v>
       </c>
-      <c r="B129" t="s">
-        <v>9</v>
+      <c r="B129">
+        <v>2333.33</v>
       </c>
       <c r="C129">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
-      <c r="B130" t="s">
-        <v>9</v>
+      <c r="B130">
+        <v>2333.33</v>
       </c>
       <c r="C130">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D130">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7</v>
       </c>
-      <c r="B131" t="s">
-        <v>9</v>
+      <c r="B131">
+        <v>2333.33</v>
       </c>
       <c r="C131">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D131">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7</v>
       </c>
-      <c r="B132" t="s">
-        <v>9</v>
+      <c r="B132">
+        <v>2333.33</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7</v>
       </c>
-      <c r="B133" t="s">
-        <v>9</v>
+      <c r="B133">
+        <v>2333.33</v>
       </c>
       <c r="C133">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D133">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
-      <c r="B134" t="s">
-        <v>9</v>
+      <c r="B134">
+        <v>2333.33</v>
       </c>
       <c r="C134">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D134">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7</v>
       </c>
-      <c r="B135" t="s">
-        <v>9</v>
+      <c r="B135">
+        <v>2333.33</v>
       </c>
       <c r="C135">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D135">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7</v>
       </c>
-      <c r="B136" t="s">
-        <v>9</v>
+      <c r="B136">
+        <v>2333.33</v>
       </c>
       <c r="C136">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>8</v>
       </c>
-      <c r="B137" t="s">
-        <v>9</v>
+      <c r="B137">
+        <v>2333.33</v>
       </c>
       <c r="C137">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D137">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
-      <c r="B138" t="s">
-        <v>9</v>
+      <c r="B138">
+        <v>2333.33</v>
       </c>
       <c r="C138">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D138">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>8</v>
       </c>
-      <c r="B139" t="s">
-        <v>9</v>
+      <c r="B139">
+        <v>2333.33</v>
       </c>
       <c r="C139">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D139">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>8</v>
       </c>
-      <c r="B140" t="s">
-        <v>9</v>
+      <c r="B140">
+        <v>2333.33</v>
       </c>
       <c r="C140">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>8</v>
       </c>
-      <c r="B141" t="s">
-        <v>9</v>
+      <c r="B141">
+        <v>2333.33</v>
       </c>
       <c r="C141">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>8</v>
       </c>
-      <c r="B142" t="s">
-        <v>9</v>
+      <c r="B142">
+        <v>2333.33</v>
       </c>
       <c r="C142">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D142">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>8</v>
       </c>
-      <c r="B143" t="s">
-        <v>9</v>
+      <c r="B143">
+        <v>2333.33</v>
       </c>
       <c r="C143">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D143">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8</v>
       </c>
-      <c r="B144" t="s">
-        <v>9</v>
+      <c r="B144">
+        <v>2333.33</v>
       </c>
       <c r="C144">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D144">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>8</v>
       </c>
-      <c r="B145" t="s">
-        <v>9</v>
+      <c r="B145">
+        <v>2333.33</v>
       </c>
       <c r="C145">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D145">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
-      <c r="B146" t="s">
-        <v>9</v>
+      <c r="B146">
+        <v>2333.33</v>
       </c>
       <c r="C146">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D146">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>8</v>
       </c>
-      <c r="B147" t="s">
-        <v>9</v>
+      <c r="B147">
+        <v>2333.33</v>
       </c>
       <c r="C147">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D147">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8</v>
       </c>
-      <c r="B148" t="s">
-        <v>9</v>
+      <c r="B148">
+        <v>2333.33</v>
       </c>
       <c r="C148">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D148">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>8</v>
       </c>
-      <c r="B149" t="s">
-        <v>9</v>
+      <c r="B149">
+        <v>2333.33</v>
       </c>
       <c r="C149">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D149">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>8</v>
       </c>
-      <c r="B150" t="s">
-        <v>9</v>
+      <c r="B150">
+        <v>2333.33</v>
       </c>
       <c r="C150">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D150">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>8</v>
       </c>
-      <c r="B151" t="s">
-        <v>9</v>
+      <c r="B151">
+        <v>2333.33</v>
       </c>
       <c r="C151">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D151">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8</v>
       </c>
-      <c r="B152" t="s">
-        <v>9</v>
+      <c r="B152">
+        <v>2333.33</v>
       </c>
       <c r="C152">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D152">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
-      <c r="B153" t="s">
-        <v>9</v>
+      <c r="B153">
+        <v>2333.33</v>
       </c>
       <c r="C153">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D153">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
-      <c r="B154" t="s">
-        <v>9</v>
+      <c r="B154">
+        <v>2333.33</v>
       </c>
       <c r="C154">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>8</v>
       </c>
-      <c r="B155" t="s">
-        <v>9</v>
+      <c r="B155">
+        <v>2333.33</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D155">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8</v>
       </c>
-      <c r="B156" t="s">
-        <v>9</v>
+      <c r="B156">
+        <v>2333.33</v>
       </c>
       <c r="C156">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D156">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
-      <c r="B157" t="s">
-        <v>9</v>
+      <c r="B157">
+        <v>2333.33</v>
       </c>
       <c r="C157">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8</v>
       </c>
-      <c r="B158" t="s">
-        <v>9</v>
+      <c r="B158">
+        <v>2333.33</v>
       </c>
       <c r="C158">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9</v>
       </c>
-      <c r="B159" t="s">
-        <v>9</v>
+      <c r="B159">
+        <v>2333.33</v>
       </c>
       <c r="C159">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D159">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>9</v>
       </c>
-      <c r="B160" t="s">
-        <v>9</v>
+      <c r="B160">
+        <v>2333.33</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D160">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>9</v>
       </c>
-      <c r="B161" t="s">
-        <v>9</v>
+      <c r="B161">
+        <v>2333.33</v>
       </c>
       <c r="C161">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D161">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>9</v>
       </c>
-      <c r="B162" t="s">
-        <v>9</v>
+      <c r="B162">
+        <v>2333.33</v>
       </c>
       <c r="C162">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D162">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>9</v>
       </c>
-      <c r="B163" t="s">
-        <v>9</v>
+      <c r="B163">
+        <v>2333.33</v>
       </c>
       <c r="C163">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D163">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>9</v>
       </c>
-      <c r="B164" t="s">
-        <v>9</v>
+      <c r="B164">
+        <v>2333.33</v>
       </c>
       <c r="C164">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D164">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>9</v>
       </c>
-      <c r="B165" t="s">
-        <v>9</v>
+      <c r="B165">
+        <v>2333.33</v>
       </c>
       <c r="C165">
         <v>92</v>
@@ -2773,120 +2670,120 @@
       <c r="A166">
         <v>9</v>
       </c>
-      <c r="B166" t="s">
-        <v>9</v>
+      <c r="B166">
+        <v>2333.33</v>
       </c>
       <c r="C166">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D166">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>9</v>
       </c>
-      <c r="B167" t="s">
-        <v>9</v>
+      <c r="B167">
+        <v>2333.33</v>
       </c>
       <c r="C167">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D167">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>9</v>
       </c>
-      <c r="B168" t="s">
-        <v>9</v>
+      <c r="B168">
+        <v>2333.33</v>
       </c>
       <c r="C168">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D168">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>9</v>
       </c>
-      <c r="B169" t="s">
-        <v>9</v>
+      <c r="B169">
+        <v>2333.33</v>
       </c>
       <c r="C169">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D169">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>9</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170">
+        <v>2333.33</v>
+      </c>
+      <c r="C170">
         <v>9</v>
       </c>
-      <c r="C170">
-        <v>45</v>
-      </c>
       <c r="D170">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9</v>
       </c>
-      <c r="B171" t="s">
-        <v>9</v>
+      <c r="B171">
+        <v>2333.33</v>
       </c>
       <c r="C171">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D171">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>17</v>
       </c>
-      <c r="B172" t="s">
-        <v>10</v>
+      <c r="B172">
+        <v>2189.79</v>
       </c>
       <c r="C172">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D172">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>17</v>
       </c>
-      <c r="B173" t="s">
-        <v>10</v>
+      <c r="B173">
+        <v>2189.79</v>
       </c>
       <c r="C173">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D173">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>17</v>
       </c>
-      <c r="B174" t="s">
-        <v>10</v>
+      <c r="B174">
+        <v>2189.79</v>
       </c>
       <c r="C174">
         <v>63</v>
@@ -2899,64 +2796,64 @@
       <c r="A175">
         <v>17</v>
       </c>
-      <c r="B175" t="s">
-        <v>10</v>
+      <c r="B175">
+        <v>2189.79</v>
       </c>
       <c r="C175">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D175">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>17</v>
       </c>
-      <c r="B176" t="s">
-        <v>10</v>
+      <c r="B176">
+        <v>2189.79</v>
       </c>
       <c r="C176">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D176">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>11</v>
       </c>
-      <c r="B177" t="s">
-        <v>11</v>
+      <c r="B177">
+        <v>2179.59</v>
       </c>
       <c r="C177">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D177">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>11</v>
       </c>
-      <c r="B178" t="s">
-        <v>11</v>
+      <c r="B178">
+        <v>2179.59</v>
       </c>
       <c r="C178">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D178">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>11</v>
       </c>
-      <c r="B179" t="s">
-        <v>11</v>
+      <c r="B179">
+        <v>2179.59</v>
       </c>
       <c r="C179">
         <v>65</v>
@@ -2969,120 +2866,120 @@
       <c r="A180">
         <v>11</v>
       </c>
-      <c r="B180" t="s">
-        <v>11</v>
+      <c r="B180">
+        <v>2179.59</v>
       </c>
       <c r="C180">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D180">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11</v>
       </c>
-      <c r="B181" t="s">
-        <v>11</v>
+      <c r="B181">
+        <v>2179.59</v>
       </c>
       <c r="C181">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D181">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20</v>
       </c>
-      <c r="B182" t="s">
-        <v>12</v>
+      <c r="B182">
+        <v>1889.81</v>
       </c>
       <c r="C182">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D182">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>20</v>
       </c>
-      <c r="B183" t="s">
-        <v>12</v>
+      <c r="B183">
+        <v>1889.81</v>
       </c>
       <c r="C183">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D183">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>20</v>
       </c>
-      <c r="B184" t="s">
-        <v>12</v>
+      <c r="B184">
+        <v>1889.81</v>
       </c>
       <c r="C184">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D184">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>20</v>
       </c>
-      <c r="B185" t="s">
-        <v>12</v>
+      <c r="B185">
+        <v>1889.81</v>
       </c>
       <c r="C185">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D185">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>20</v>
       </c>
-      <c r="B186" t="s">
-        <v>12</v>
+      <c r="B186">
+        <v>1889.81</v>
       </c>
       <c r="C186">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D186">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>20</v>
       </c>
-      <c r="B187" t="s">
-        <v>12</v>
+      <c r="B187">
+        <v>1889.81</v>
       </c>
       <c r="C187">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D187">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20</v>
       </c>
-      <c r="B188" t="s">
-        <v>12</v>
+      <c r="B188">
+        <v>1889.81</v>
       </c>
       <c r="C188">
         <v>92</v>
@@ -3095,92 +2992,92 @@
       <c r="A189">
         <v>20</v>
       </c>
-      <c r="B189" t="s">
-        <v>12</v>
+      <c r="B189">
+        <v>1889.81</v>
       </c>
       <c r="C189">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D189">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20</v>
       </c>
-      <c r="B190" t="s">
-        <v>12</v>
+      <c r="B190">
+        <v>1889.81</v>
       </c>
       <c r="C190">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D190">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>20</v>
       </c>
-      <c r="B191" t="s">
-        <v>12</v>
+      <c r="B191">
+        <v>1889.81</v>
       </c>
       <c r="C191">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D191">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>20</v>
       </c>
-      <c r="B192" t="s">
-        <v>12</v>
+      <c r="B192">
+        <v>1889.81</v>
       </c>
       <c r="C192">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D192">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>20</v>
       </c>
-      <c r="B193" t="s">
-        <v>12</v>
+      <c r="B193">
+        <v>1889.81</v>
       </c>
       <c r="C193">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D193">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>20</v>
       </c>
-      <c r="B194" t="s">
-        <v>12</v>
+      <c r="B194">
+        <v>1889.81</v>
       </c>
       <c r="C194">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D194">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>53</v>
       </c>
-      <c r="B195" t="s">
-        <v>12</v>
+      <c r="B195">
+        <v>1889.81</v>
       </c>
       <c r="C195">
         <v>82</v>
@@ -3193,1534 +3090,1534 @@
       <c r="A196">
         <v>32</v>
       </c>
-      <c r="B196" t="s">
-        <v>13</v>
+      <c r="B196">
+        <v>1857.56</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D196">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>32</v>
       </c>
-      <c r="B197" t="s">
-        <v>13</v>
+      <c r="B197">
+        <v>1857.56</v>
       </c>
       <c r="C197">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D197">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>32</v>
       </c>
-      <c r="B198" t="s">
-        <v>13</v>
+      <c r="B198">
+        <v>1857.56</v>
       </c>
       <c r="C198">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D198">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>32</v>
       </c>
-      <c r="B199" t="s">
-        <v>13</v>
+      <c r="B199">
+        <v>1857.56</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D199">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>32</v>
       </c>
-      <c r="B200" t="s">
-        <v>13</v>
+      <c r="B200">
+        <v>1857.56</v>
       </c>
       <c r="C200">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D200">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>32</v>
       </c>
-      <c r="B201" t="s">
-        <v>13</v>
+      <c r="B201">
+        <v>1857.56</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D201">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>32</v>
       </c>
-      <c r="B202" t="s">
-        <v>13</v>
+      <c r="B202">
+        <v>1857.56</v>
       </c>
       <c r="C202">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D202">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>32</v>
       </c>
-      <c r="B203" t="s">
-        <v>13</v>
+      <c r="B203">
+        <v>1857.56</v>
       </c>
       <c r="C203">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D203">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>32</v>
       </c>
-      <c r="B204" t="s">
-        <v>13</v>
+      <c r="B204">
+        <v>1857.56</v>
       </c>
       <c r="C204">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D204">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>32</v>
       </c>
-      <c r="B205" t="s">
-        <v>13</v>
+      <c r="B205">
+        <v>1857.56</v>
       </c>
       <c r="C205">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D205">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>32</v>
       </c>
-      <c r="B206" t="s">
-        <v>13</v>
+      <c r="B206">
+        <v>1857.56</v>
       </c>
       <c r="C206">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D206">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>32</v>
       </c>
-      <c r="B207" t="s">
-        <v>13</v>
+      <c r="B207">
+        <v>1857.56</v>
       </c>
       <c r="C207">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D207">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>32</v>
       </c>
-      <c r="B208" t="s">
-        <v>13</v>
+      <c r="B208">
+        <v>1857.56</v>
       </c>
       <c r="C208">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>32</v>
       </c>
-      <c r="B209" t="s">
-        <v>13</v>
+      <c r="B209">
+        <v>1857.56</v>
       </c>
       <c r="C209">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D209">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>32</v>
       </c>
-      <c r="B210" t="s">
-        <v>13</v>
+      <c r="B210">
+        <v>1857.56</v>
       </c>
       <c r="C210">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>32</v>
       </c>
-      <c r="B211" t="s">
-        <v>13</v>
+      <c r="B211">
+        <v>1857.56</v>
       </c>
       <c r="C211">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D211">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>32</v>
       </c>
-      <c r="B212" t="s">
-        <v>13</v>
+      <c r="B212">
+        <v>1857.56</v>
       </c>
       <c r="C212">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D212">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>32</v>
       </c>
-      <c r="B213" t="s">
-        <v>13</v>
+      <c r="B213">
+        <v>1857.56</v>
       </c>
       <c r="C213">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>33</v>
       </c>
-      <c r="B214" t="s">
-        <v>13</v>
+      <c r="B214">
+        <v>1857.56</v>
       </c>
       <c r="C214">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D214">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>33</v>
       </c>
-      <c r="B215" t="s">
-        <v>13</v>
+      <c r="B215">
+        <v>1857.56</v>
       </c>
       <c r="C215">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D215">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>33</v>
       </c>
-      <c r="B216" t="s">
-        <v>13</v>
+      <c r="B216">
+        <v>1857.56</v>
       </c>
       <c r="C216">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D216">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>33</v>
       </c>
-      <c r="B217" t="s">
-        <v>13</v>
+      <c r="B217">
+        <v>1857.56</v>
       </c>
       <c r="C217">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D217">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>33</v>
       </c>
-      <c r="B218" t="s">
-        <v>13</v>
+      <c r="B218">
+        <v>1857.56</v>
       </c>
       <c r="C218">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D218">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>33</v>
       </c>
-      <c r="B219" t="s">
-        <v>13</v>
+      <c r="B219">
+        <v>1857.56</v>
       </c>
       <c r="C219">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D219">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>33</v>
       </c>
-      <c r="B220" t="s">
-        <v>13</v>
+      <c r="B220">
+        <v>1857.56</v>
       </c>
       <c r="C220">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D220">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>33</v>
       </c>
-      <c r="B221" t="s">
-        <v>13</v>
+      <c r="B221">
+        <v>1857.56</v>
       </c>
       <c r="C221">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>29</v>
       </c>
-      <c r="B222" t="s">
-        <v>14</v>
+      <c r="B222">
+        <v>1764.52</v>
       </c>
       <c r="C222">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D222">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>29</v>
       </c>
-      <c r="B223" t="s">
-        <v>14</v>
+      <c r="B223">
+        <v>1764.52</v>
       </c>
       <c r="C223">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D223">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>29</v>
       </c>
-      <c r="B224" t="s">
-        <v>14</v>
+      <c r="B224">
+        <v>1764.52</v>
       </c>
       <c r="C224">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D224">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>29</v>
       </c>
-      <c r="B225" t="s">
-        <v>14</v>
+      <c r="B225">
+        <v>1764.52</v>
       </c>
       <c r="C225">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>45</v>
       </c>
-      <c r="B226" t="s">
-        <v>15</v>
+      <c r="B226">
+        <v>1382.81</v>
       </c>
       <c r="C226">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D226">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>45</v>
       </c>
-      <c r="B227" t="s">
-        <v>15</v>
+      <c r="B227">
+        <v>1382.81</v>
       </c>
       <c r="C227">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D227">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>45</v>
       </c>
-      <c r="B228" t="s">
-        <v>15</v>
+      <c r="B228">
+        <v>1382.81</v>
       </c>
       <c r="C228">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D228">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>45</v>
       </c>
-      <c r="B229" t="s">
-        <v>15</v>
+      <c r="B229">
+        <v>1382.81</v>
       </c>
       <c r="C229">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D229">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>45</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230">
+        <v>1382.81</v>
+      </c>
+      <c r="C230">
         <v>15</v>
       </c>
-      <c r="C230">
-        <v>58</v>
-      </c>
       <c r="D230">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>45</v>
       </c>
-      <c r="B231" t="s">
-        <v>15</v>
+      <c r="B231">
+        <v>1382.81</v>
       </c>
       <c r="C231">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D231">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>45</v>
       </c>
-      <c r="B232" t="s">
-        <v>15</v>
+      <c r="B232">
+        <v>1382.81</v>
       </c>
       <c r="C232">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D232">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>45</v>
       </c>
-      <c r="B233" t="s">
-        <v>15</v>
+      <c r="B233">
+        <v>1382.81</v>
       </c>
       <c r="C233">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D233">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>45</v>
       </c>
-      <c r="B234" t="s">
-        <v>15</v>
+      <c r="B234">
+        <v>1382.81</v>
       </c>
       <c r="C234">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D234">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>45</v>
       </c>
-      <c r="B235" t="s">
-        <v>15</v>
+      <c r="B235">
+        <v>1382.81</v>
       </c>
       <c r="C235">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D235">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>45</v>
       </c>
-      <c r="B236" t="s">
-        <v>15</v>
+      <c r="B236">
+        <v>1382.81</v>
       </c>
       <c r="C236">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D236">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>45</v>
       </c>
-      <c r="B237" t="s">
-        <v>15</v>
+      <c r="B237">
+        <v>1382.81</v>
       </c>
       <c r="C237">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D237">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>45</v>
       </c>
-      <c r="B238" t="s">
-        <v>15</v>
+      <c r="B238">
+        <v>1382.81</v>
       </c>
       <c r="C238">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D238">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>45</v>
       </c>
-      <c r="B239" t="s">
-        <v>15</v>
+      <c r="B239">
+        <v>1382.81</v>
       </c>
       <c r="C239">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D239">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>45</v>
       </c>
-      <c r="B240" t="s">
-        <v>15</v>
+      <c r="B240">
+        <v>1382.81</v>
       </c>
       <c r="C240">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D240">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>45</v>
       </c>
-      <c r="B241" t="s">
-        <v>15</v>
+      <c r="B241">
+        <v>1382.81</v>
       </c>
       <c r="C241">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D241">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>45</v>
       </c>
-      <c r="B242" t="s">
-        <v>15</v>
+      <c r="B242">
+        <v>1382.81</v>
       </c>
       <c r="C242">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D242">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>45</v>
       </c>
-      <c r="B243" t="s">
-        <v>15</v>
+      <c r="B243">
+        <v>1382.81</v>
       </c>
       <c r="C243">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D243">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>45</v>
       </c>
-      <c r="B244" t="s">
-        <v>15</v>
+      <c r="B244">
+        <v>1382.81</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D244">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>45</v>
       </c>
-      <c r="B245" t="s">
-        <v>15</v>
+      <c r="B245">
+        <v>1382.81</v>
       </c>
       <c r="C245">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>45</v>
       </c>
-      <c r="B246" t="s">
-        <v>15</v>
+      <c r="B246">
+        <v>1382.81</v>
       </c>
       <c r="C246">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>45</v>
       </c>
-      <c r="B247" t="s">
-        <v>15</v>
+      <c r="B247">
+        <v>1382.81</v>
       </c>
       <c r="C247">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>18</v>
       </c>
-      <c r="B248" t="s">
-        <v>16</v>
+      <c r="B248">
+        <v>1299.8599999999999</v>
       </c>
       <c r="C248">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D248">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>18</v>
       </c>
-      <c r="B249" t="s">
-        <v>16</v>
+      <c r="B249">
+        <v>1299.8599999999999</v>
       </c>
       <c r="C249">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D249">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>18</v>
       </c>
-      <c r="B250" t="s">
-        <v>16</v>
+      <c r="B250">
+        <v>1299.8599999999999</v>
       </c>
       <c r="C250">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D250">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>18</v>
       </c>
-      <c r="B251" t="s">
-        <v>16</v>
+      <c r="B251">
+        <v>1299.8599999999999</v>
       </c>
       <c r="C251">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D251">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>18</v>
       </c>
-      <c r="B252" t="s">
-        <v>16</v>
+      <c r="B252">
+        <v>1299.8599999999999</v>
       </c>
       <c r="C252">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D252">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>18</v>
       </c>
-      <c r="B253" t="s">
-        <v>16</v>
+      <c r="B253">
+        <v>1299.8599999999999</v>
       </c>
       <c r="C253">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D253">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>18</v>
       </c>
-      <c r="B254" t="s">
-        <v>16</v>
+      <c r="B254">
+        <v>1299.8599999999999</v>
       </c>
       <c r="C254">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D254">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>18</v>
       </c>
-      <c r="B255" t="s">
-        <v>16</v>
+      <c r="B255">
+        <v>1299.8599999999999</v>
       </c>
       <c r="C255">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D255">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>12</v>
       </c>
-      <c r="B256" t="s">
-        <v>17</v>
+      <c r="B256">
+        <v>1276.95</v>
       </c>
       <c r="C256">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D256">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>12</v>
       </c>
-      <c r="B257" t="s">
-        <v>17</v>
+      <c r="B257">
+        <v>1276.95</v>
       </c>
       <c r="C257">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D257">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>12</v>
       </c>
-      <c r="B258" t="s">
-        <v>17</v>
+      <c r="B258">
+        <v>1276.95</v>
       </c>
       <c r="C258">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D258">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>12</v>
       </c>
-      <c r="B259" t="s">
-        <v>17</v>
+      <c r="B259">
+        <v>1276.95</v>
       </c>
       <c r="C259">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D259">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>12</v>
       </c>
-      <c r="B260" t="s">
-        <v>17</v>
+      <c r="B260">
+        <v>1276.95</v>
       </c>
       <c r="C260">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D260">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>12</v>
       </c>
-      <c r="B261" t="s">
-        <v>17</v>
+      <c r="B261">
+        <v>1276.95</v>
       </c>
       <c r="C261">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D261">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>27</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262">
+        <v>1225.54</v>
+      </c>
+      <c r="C262">
+        <v>56</v>
+      </c>
+      <c r="D262">
         <v>18</v>
-      </c>
-      <c r="C262">
-        <v>89</v>
-      </c>
-      <c r="D262">
-        <v>68</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>27</v>
       </c>
-      <c r="B263" t="s">
-        <v>18</v>
+      <c r="B263">
+        <v>1225.54</v>
       </c>
       <c r="C263">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D263">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>27</v>
       </c>
-      <c r="B264" t="s">
-        <v>18</v>
+      <c r="B264">
+        <v>1225.54</v>
       </c>
       <c r="C264">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D264">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>27</v>
       </c>
-      <c r="B265" t="s">
-        <v>18</v>
+      <c r="B265">
+        <v>1225.54</v>
       </c>
       <c r="C265">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D265">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>25</v>
       </c>
-      <c r="B266" t="s">
-        <v>19</v>
+      <c r="B266">
+        <v>1192.75</v>
       </c>
       <c r="C266">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D266">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>25</v>
       </c>
-      <c r="B267" t="s">
-        <v>19</v>
+      <c r="B267">
+        <v>1192.75</v>
       </c>
       <c r="C267">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D267">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>25</v>
       </c>
-      <c r="B268" t="s">
-        <v>19</v>
+      <c r="B268">
+        <v>1192.75</v>
       </c>
       <c r="C268">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D268">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>25</v>
       </c>
-      <c r="B269" t="s">
-        <v>19</v>
+      <c r="B269">
+        <v>1192.75</v>
       </c>
       <c r="C269">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D269">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>25</v>
       </c>
-      <c r="B270" t="s">
-        <v>19</v>
+      <c r="B270">
+        <v>1192.75</v>
       </c>
       <c r="C270">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D270">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>25</v>
       </c>
-      <c r="B271" t="s">
-        <v>19</v>
+      <c r="B271">
+        <v>1192.75</v>
       </c>
       <c r="C271">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D271">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>35</v>
       </c>
-      <c r="B272" t="s">
-        <v>20</v>
+      <c r="B272">
+        <v>1048.52</v>
       </c>
       <c r="C272">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D272">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>35</v>
       </c>
-      <c r="B273" t="s">
-        <v>20</v>
+      <c r="B273">
+        <v>1048.52</v>
       </c>
       <c r="C273">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D273">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>35</v>
       </c>
-      <c r="B274" t="s">
-        <v>20</v>
+      <c r="B274">
+        <v>1048.52</v>
       </c>
       <c r="C274">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D274">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>35</v>
       </c>
-      <c r="B275" t="s">
-        <v>20</v>
+      <c r="B275">
+        <v>1048.52</v>
       </c>
       <c r="C275">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D275">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>35</v>
       </c>
-      <c r="B276" t="s">
-        <v>20</v>
+      <c r="B276">
+        <v>1048.52</v>
       </c>
       <c r="C276">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D276">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>35</v>
       </c>
-      <c r="B277" t="s">
-        <v>20</v>
+      <c r="B277">
+        <v>1048.52</v>
       </c>
       <c r="C277">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D277">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>35</v>
       </c>
-      <c r="B278" t="s">
-        <v>20</v>
+      <c r="B278">
+        <v>1048.52</v>
       </c>
       <c r="C278">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D278">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
-      <c r="B279" t="s">
-        <v>20</v>
+      <c r="B279">
+        <v>1048.52</v>
       </c>
       <c r="C279">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D279">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>36</v>
       </c>
-      <c r="B280" t="s">
-        <v>20</v>
+      <c r="B280">
+        <v>1048.52</v>
       </c>
       <c r="C280">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D280">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>36</v>
       </c>
-      <c r="B281" t="s">
-        <v>20</v>
+      <c r="B281">
+        <v>1048.52</v>
       </c>
       <c r="C281">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D281">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>36</v>
       </c>
-      <c r="B282" t="s">
-        <v>20</v>
+      <c r="B282">
+        <v>1048.52</v>
       </c>
       <c r="C282">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D282">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>36</v>
       </c>
-      <c r="B283" t="s">
-        <v>20</v>
+      <c r="B283">
+        <v>1048.52</v>
       </c>
       <c r="C283">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D283">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>37</v>
       </c>
-      <c r="B284" t="s">
-        <v>20</v>
+      <c r="B284">
+        <v>1048.52</v>
       </c>
       <c r="C284">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D284">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>37</v>
       </c>
-      <c r="B285" t="s">
-        <v>20</v>
+      <c r="B285">
+        <v>1048.52</v>
       </c>
       <c r="C285">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="D285">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>37</v>
       </c>
-      <c r="B286" t="s">
-        <v>20</v>
+      <c r="B286">
+        <v>1048.52</v>
       </c>
       <c r="C286">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D286">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>37</v>
       </c>
-      <c r="B287" t="s">
-        <v>20</v>
+      <c r="B287">
+        <v>1048.52</v>
       </c>
       <c r="C287">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D287">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>37</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288">
+        <v>1048.52</v>
+      </c>
+      <c r="C288">
+        <v>15</v>
+      </c>
+      <c r="D288">
         <v>20</v>
-      </c>
-      <c r="C288">
-        <v>37</v>
-      </c>
-      <c r="D288">
-        <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>37</v>
       </c>
-      <c r="B289" t="s">
-        <v>20</v>
+      <c r="B289">
+        <v>1048.52</v>
       </c>
       <c r="C289">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D289">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>37</v>
       </c>
-      <c r="B290" t="s">
-        <v>20</v>
+      <c r="B290">
+        <v>1048.52</v>
       </c>
       <c r="C290">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D290">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>37</v>
       </c>
-      <c r="B291" t="s">
-        <v>20</v>
+      <c r="B291">
+        <v>1048.52</v>
       </c>
       <c r="C291">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D291">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>37</v>
       </c>
-      <c r="B292" t="s">
-        <v>20</v>
+      <c r="B292">
+        <v>1048.52</v>
       </c>
       <c r="C292">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D292">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>37</v>
       </c>
-      <c r="B293" t="s">
-        <v>20</v>
+      <c r="B293">
+        <v>1048.52</v>
       </c>
       <c r="C293">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D293">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>37</v>
       </c>
-      <c r="B294" t="s">
-        <v>20</v>
+      <c r="B294">
+        <v>1048.52</v>
       </c>
       <c r="C294">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D294">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>37</v>
       </c>
-      <c r="B295" t="s">
-        <v>20</v>
+      <c r="B295">
+        <v>1048.52</v>
       </c>
       <c r="C295">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D295">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>37</v>
       </c>
-      <c r="B296" t="s">
-        <v>20</v>
+      <c r="B296">
+        <v>1048.52</v>
       </c>
       <c r="C296">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D296">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>37</v>
       </c>
-      <c r="B297" t="s">
-        <v>20</v>
+      <c r="B297">
+        <v>1048.52</v>
       </c>
       <c r="C297">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D297">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>37</v>
       </c>
-      <c r="B298" t="s">
-        <v>20</v>
+      <c r="B298">
+        <v>1048.52</v>
       </c>
       <c r="C298">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D298">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>37</v>
       </c>
-      <c r="B299" t="s">
-        <v>20</v>
+      <c r="B299">
+        <v>1048.52</v>
       </c>
       <c r="C299">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D299">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>37</v>
       </c>
-      <c r="B300" t="s">
-        <v>20</v>
+      <c r="B300">
+        <v>1048.52</v>
       </c>
       <c r="C300">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>37</v>
       </c>
-      <c r="B301" t="s">
-        <v>20</v>
+      <c r="B301">
+        <v>1048.52</v>
       </c>
       <c r="C301">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>38</v>
       </c>
-      <c r="B302" t="s">
-        <v>20</v>
+      <c r="B302">
+        <v>1048.52</v>
       </c>
       <c r="C302">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D302">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>38</v>
       </c>
-      <c r="B303" t="s">
-        <v>20</v>
+      <c r="B303">
+        <v>1048.52</v>
       </c>
       <c r="C303">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D303">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>38</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304">
+        <v>1048.52</v>
+      </c>
+      <c r="C304">
         <v>20</v>
       </c>
-      <c r="C304">
-        <v>92</v>
-      </c>
       <c r="D304">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>38</v>
       </c>
-      <c r="B305" t="s">
-        <v>20</v>
+      <c r="B305">
+        <v>1048.52</v>
       </c>
       <c r="C305">
         <v>88</v>
@@ -4733,316 +4630,316 @@
       <c r="A306">
         <v>38</v>
       </c>
-      <c r="B306" t="s">
-        <v>20</v>
+      <c r="B306">
+        <v>1048.52</v>
       </c>
       <c r="C306">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D306">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>38</v>
       </c>
-      <c r="B307" t="s">
-        <v>20</v>
+      <c r="B307">
+        <v>1048.52</v>
       </c>
       <c r="C307">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D307">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>38</v>
       </c>
-      <c r="B308" t="s">
-        <v>20</v>
+      <c r="B308">
+        <v>1048.52</v>
       </c>
       <c r="C308">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D308">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>52</v>
       </c>
-      <c r="B309" t="s">
-        <v>21</v>
+      <c r="B309">
+        <v>1047.52</v>
       </c>
       <c r="C309">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D309">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>52</v>
       </c>
-      <c r="B310" t="s">
-        <v>21</v>
+      <c r="B310">
+        <v>1047.52</v>
       </c>
       <c r="C310">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D310">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>52</v>
       </c>
-      <c r="B311" t="s">
-        <v>21</v>
+      <c r="B311">
+        <v>1047.52</v>
       </c>
       <c r="C311">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D311">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>52</v>
       </c>
-      <c r="B312" t="s">
-        <v>21</v>
+      <c r="B312">
+        <v>1047.52</v>
       </c>
       <c r="C312">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D312">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>52</v>
       </c>
-      <c r="B313" t="s">
-        <v>21</v>
+      <c r="B313">
+        <v>1047.52</v>
       </c>
       <c r="C313">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D313">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>52</v>
       </c>
-      <c r="B314" t="s">
-        <v>21</v>
+      <c r="B314">
+        <v>1047.52</v>
       </c>
       <c r="C314">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D314">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>52</v>
       </c>
-      <c r="B315" t="s">
-        <v>21</v>
+      <c r="B315">
+        <v>1047.52</v>
       </c>
       <c r="C315">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D315">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>52</v>
       </c>
-      <c r="B316" t="s">
-        <v>21</v>
+      <c r="B316">
+        <v>1047.52</v>
       </c>
       <c r="C316">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="D316">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>52</v>
       </c>
-      <c r="B317" t="s">
-        <v>21</v>
+      <c r="B317">
+        <v>1047.52</v>
       </c>
       <c r="C317">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D317">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>52</v>
       </c>
-      <c r="B318" t="s">
-        <v>21</v>
+      <c r="B318">
+        <v>1047.52</v>
       </c>
       <c r="C318">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D318">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>15</v>
       </c>
-      <c r="B319" t="s">
-        <v>22</v>
+      <c r="B319">
+        <v>1012.7</v>
       </c>
       <c r="C319">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D319">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>15</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320">
+        <v>1012.7</v>
+      </c>
+      <c r="C320">
+        <v>91</v>
+      </c>
+      <c r="D320">
         <v>22</v>
-      </c>
-      <c r="C320">
-        <v>90</v>
-      </c>
-      <c r="D320">
-        <v>58</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>15</v>
       </c>
-      <c r="B321" t="s">
-        <v>22</v>
+      <c r="B321">
+        <v>1012.7</v>
       </c>
       <c r="C321">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D321">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>15</v>
       </c>
-      <c r="B322" t="s">
-        <v>22</v>
+      <c r="B322">
+        <v>1012.7</v>
       </c>
       <c r="C322">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D322">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>15</v>
       </c>
-      <c r="B323" t="s">
-        <v>22</v>
+      <c r="B323">
+        <v>1012.7</v>
       </c>
       <c r="C323">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D323">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>15</v>
       </c>
-      <c r="B324" t="s">
-        <v>22</v>
+      <c r="B324">
+        <v>1012.7</v>
       </c>
       <c r="C324">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D324">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>46</v>
       </c>
-      <c r="B325" t="s">
-        <v>23</v>
+      <c r="B325">
+        <v>767.86</v>
       </c>
       <c r="C325">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D325">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>46</v>
       </c>
-      <c r="B326" t="s">
-        <v>23</v>
+      <c r="B326">
+        <v>767.86</v>
       </c>
       <c r="C326">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D326">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>46</v>
       </c>
-      <c r="B327" t="s">
-        <v>23</v>
+      <c r="B327">
+        <v>767.86</v>
       </c>
       <c r="C327">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D327">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>46</v>
       </c>
-      <c r="B328" t="s">
-        <v>23</v>
+      <c r="B328">
+        <v>767.86</v>
       </c>
       <c r="C328">
         <v>82</v>
@@ -5055,92 +4952,92 @@
       <c r="A329">
         <v>46</v>
       </c>
-      <c r="B329" t="s">
-        <v>23</v>
+      <c r="B329">
+        <v>767.86</v>
       </c>
       <c r="C329">
+        <v>43</v>
+      </c>
+      <c r="D329">
         <v>65</v>
-      </c>
-      <c r="D329">
-        <v>54</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>46</v>
       </c>
-      <c r="B330" t="s">
-        <v>23</v>
+      <c r="B330">
+        <v>767.86</v>
       </c>
       <c r="C330">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D330">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>46</v>
       </c>
-      <c r="B331" t="s">
-        <v>23</v>
+      <c r="B331">
+        <v>767.86</v>
       </c>
       <c r="C331">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D331">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>16</v>
       </c>
-      <c r="B332" t="s">
-        <v>24</v>
+      <c r="B332">
+        <v>765.59</v>
       </c>
       <c r="C332">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D332">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>16</v>
       </c>
-      <c r="B333" t="s">
-        <v>24</v>
+      <c r="B333">
+        <v>765.59</v>
       </c>
       <c r="C333">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D333">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>16</v>
       </c>
-      <c r="B334" t="s">
-        <v>24</v>
+      <c r="B334">
+        <v>765.59</v>
       </c>
       <c r="C334">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D334">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>16</v>
       </c>
-      <c r="B335" t="s">
-        <v>24</v>
+      <c r="B335">
+        <v>765.59</v>
       </c>
       <c r="C335">
         <v>40</v>
@@ -5153,64 +5050,64 @@
       <c r="A336">
         <v>16</v>
       </c>
-      <c r="B336" t="s">
-        <v>24</v>
+      <c r="B336">
+        <v>765.59</v>
       </c>
       <c r="C336">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D336">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>16</v>
       </c>
-      <c r="B337" t="s">
-        <v>24</v>
+      <c r="B337">
+        <v>765.59</v>
       </c>
       <c r="C337">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D337">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>16</v>
       </c>
-      <c r="B338" t="s">
-        <v>24</v>
+      <c r="B338">
+        <v>765.59</v>
       </c>
       <c r="C338">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D338">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>14</v>
       </c>
-      <c r="B339" t="s">
-        <v>25</v>
+      <c r="B339">
+        <v>710.68</v>
       </c>
       <c r="C339">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D339">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>14</v>
       </c>
-      <c r="B340" t="s">
-        <v>25</v>
+      <c r="B340">
+        <v>710.68</v>
       </c>
       <c r="C340">
         <v>71</v>
@@ -5223,260 +5120,260 @@
       <c r="A341">
         <v>14</v>
       </c>
-      <c r="B341" t="s">
-        <v>25</v>
+      <c r="B341">
+        <v>710.68</v>
       </c>
       <c r="C341">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D341">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>28</v>
       </c>
-      <c r="B342" t="s">
-        <v>26</v>
+      <c r="B342">
+        <v>703.52</v>
       </c>
       <c r="C342">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D342">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>28</v>
       </c>
-      <c r="B343" t="s">
-        <v>26</v>
+      <c r="B343">
+        <v>703.52</v>
       </c>
       <c r="C343">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D343">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>28</v>
       </c>
-      <c r="B344" t="s">
-        <v>26</v>
+      <c r="B344">
+        <v>703.52</v>
       </c>
       <c r="C344">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D344">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>28</v>
       </c>
-      <c r="B345" t="s">
-        <v>26</v>
+      <c r="B345">
+        <v>703.52</v>
       </c>
       <c r="C345">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D345">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>28</v>
       </c>
-      <c r="B346" t="s">
-        <v>26</v>
+      <c r="B346">
+        <v>703.52</v>
       </c>
       <c r="C346">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D346">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>28</v>
       </c>
-      <c r="B347" t="s">
-        <v>26</v>
+      <c r="B347">
+        <v>703.52</v>
       </c>
       <c r="C347">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D347">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>28</v>
       </c>
-      <c r="B348" t="s">
-        <v>26</v>
+      <c r="B348">
+        <v>703.52</v>
       </c>
       <c r="C348">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D348">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>28</v>
       </c>
-      <c r="B349" t="s">
-        <v>26</v>
+      <c r="B349">
+        <v>703.52</v>
       </c>
       <c r="C349">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D349">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>28</v>
       </c>
-      <c r="B350" t="s">
-        <v>26</v>
+      <c r="B350">
+        <v>703.52</v>
       </c>
       <c r="C350">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D350">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>28</v>
       </c>
-      <c r="B351" t="s">
-        <v>26</v>
+      <c r="B351">
+        <v>703.52</v>
       </c>
       <c r="C351">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D351">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>28</v>
       </c>
-      <c r="B352" t="s">
-        <v>26</v>
+      <c r="B352">
+        <v>703.52</v>
       </c>
       <c r="C352">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D352">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>28</v>
       </c>
-      <c r="B353" t="s">
-        <v>26</v>
+      <c r="B353">
+        <v>703.52</v>
       </c>
       <c r="C353">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D353">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>28</v>
       </c>
-      <c r="B354" t="s">
-        <v>26</v>
+      <c r="B354">
+        <v>703.52</v>
       </c>
       <c r="C354">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D354">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>28</v>
       </c>
-      <c r="B355" t="s">
-        <v>26</v>
+      <c r="B355">
+        <v>703.52</v>
       </c>
       <c r="C355">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D355">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>41</v>
       </c>
-      <c r="B356" t="s">
-        <v>27</v>
+      <c r="B356">
+        <v>626.32000000000005</v>
       </c>
       <c r="C356">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D356">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>41</v>
       </c>
-      <c r="B357" t="s">
-        <v>27</v>
+      <c r="B357">
+        <v>626.32000000000005</v>
       </c>
       <c r="C357">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D357">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>41</v>
       </c>
-      <c r="B358" t="s">
-        <v>27</v>
+      <c r="B358">
+        <v>626.32000000000005</v>
       </c>
       <c r="C358">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D358">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>41</v>
       </c>
-      <c r="B359" t="s">
-        <v>27</v>
+      <c r="B359">
+        <v>626.32000000000005</v>
       </c>
       <c r="C359">
         <v>78</v>
@@ -5489,64 +5386,64 @@
       <c r="A360">
         <v>41</v>
       </c>
-      <c r="B360" t="s">
-        <v>27</v>
+      <c r="B360">
+        <v>626.32000000000005</v>
       </c>
       <c r="C360">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D360">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>41</v>
       </c>
-      <c r="B361" t="s">
-        <v>27</v>
+      <c r="B361">
+        <v>626.32000000000005</v>
       </c>
       <c r="C361">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D361">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>41</v>
       </c>
-      <c r="B362" t="s">
-        <v>27</v>
+      <c r="B362">
+        <v>626.32000000000005</v>
       </c>
       <c r="C362">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D362">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>42</v>
       </c>
-      <c r="B363" t="s">
-        <v>27</v>
+      <c r="B363">
+        <v>626.32000000000005</v>
       </c>
       <c r="C363">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D363">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>42</v>
       </c>
-      <c r="B364" t="s">
-        <v>27</v>
+      <c r="B364">
+        <v>626.32000000000005</v>
       </c>
       <c r="C364">
         <v>43</v>
@@ -5559,120 +5456,120 @@
       <c r="A365">
         <v>42</v>
       </c>
-      <c r="B365" t="s">
-        <v>27</v>
+      <c r="B365">
+        <v>626.32000000000005</v>
       </c>
       <c r="C365">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D365">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>43</v>
       </c>
-      <c r="B366" t="s">
-        <v>27</v>
+      <c r="B366">
+        <v>626.32000000000005</v>
       </c>
       <c r="C366">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D366">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>43</v>
       </c>
-      <c r="B367" t="s">
-        <v>27</v>
+      <c r="B367">
+        <v>626.32000000000005</v>
       </c>
       <c r="C367">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D367">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>43</v>
       </c>
-      <c r="B368" t="s">
-        <v>27</v>
+      <c r="B368">
+        <v>626.32000000000005</v>
       </c>
       <c r="C368">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D368">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>43</v>
       </c>
-      <c r="B369" t="s">
-        <v>27</v>
+      <c r="B369">
+        <v>626.32000000000005</v>
       </c>
       <c r="C369">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D369">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>43</v>
       </c>
-      <c r="B370" t="s">
-        <v>27</v>
+      <c r="B370">
+        <v>626.32000000000005</v>
       </c>
       <c r="C370">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D370">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>43</v>
       </c>
-      <c r="B371" t="s">
-        <v>27</v>
+      <c r="B371">
+        <v>626.32000000000005</v>
       </c>
       <c r="C371">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D371">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>43</v>
       </c>
-      <c r="B372" t="s">
-        <v>27</v>
+      <c r="B372">
+        <v>626.32000000000005</v>
       </c>
       <c r="C372">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D372">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>43</v>
       </c>
-      <c r="B373" t="s">
-        <v>27</v>
+      <c r="B373">
+        <v>626.32000000000005</v>
       </c>
       <c r="C373">
         <v>103</v>
@@ -5685,148 +5582,148 @@
       <c r="A374">
         <v>43</v>
       </c>
-      <c r="B374" t="s">
-        <v>27</v>
+      <c r="B374">
+        <v>626.32000000000005</v>
       </c>
       <c r="C374">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D374">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>43</v>
       </c>
-      <c r="B375" t="s">
-        <v>27</v>
+      <c r="B375">
+        <v>626.32000000000005</v>
       </c>
       <c r="C375">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D375">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>43</v>
       </c>
-      <c r="B376" t="s">
-        <v>27</v>
+      <c r="B376">
+        <v>626.32000000000005</v>
       </c>
       <c r="C376">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D376">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>43</v>
       </c>
-      <c r="B377" t="s">
-        <v>27</v>
+      <c r="B377">
+        <v>626.32000000000005</v>
       </c>
       <c r="C377">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D377">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>43</v>
       </c>
-      <c r="B378" t="s">
-        <v>27</v>
+      <c r="B378">
+        <v>626.32000000000005</v>
       </c>
       <c r="C378">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D378">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>43</v>
       </c>
-      <c r="B379" t="s">
-        <v>27</v>
+      <c r="B379">
+        <v>626.32000000000005</v>
       </c>
       <c r="C379">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D379">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>43</v>
       </c>
-      <c r="B380" t="s">
-        <v>27</v>
+      <c r="B380">
+        <v>626.32000000000005</v>
       </c>
       <c r="C380">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D380">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>44</v>
       </c>
-      <c r="B381" t="s">
-        <v>27</v>
+      <c r="B381">
+        <v>626.32000000000005</v>
       </c>
       <c r="C381">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D381">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>44</v>
       </c>
-      <c r="B382" t="s">
-        <v>27</v>
+      <c r="B382">
+        <v>626.32000000000005</v>
       </c>
       <c r="C382">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D382">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>44</v>
       </c>
-      <c r="B383" t="s">
-        <v>27</v>
+      <c r="B383">
+        <v>626.32000000000005</v>
       </c>
       <c r="C383">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D383">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>44</v>
       </c>
-      <c r="B384" t="s">
-        <v>27</v>
+      <c r="B384">
+        <v>626.32000000000005</v>
       </c>
       <c r="C384">
         <v>40</v>
@@ -5839,92 +5736,92 @@
       <c r="A385">
         <v>44</v>
       </c>
-      <c r="B385" t="s">
-        <v>27</v>
+      <c r="B385">
+        <v>626.32000000000005</v>
       </c>
       <c r="C385">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D385">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>44</v>
       </c>
-      <c r="B386" t="s">
-        <v>27</v>
+      <c r="B386">
+        <v>626.32000000000005</v>
       </c>
       <c r="C386">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D386">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>44</v>
       </c>
-      <c r="B387" t="s">
-        <v>27</v>
+      <c r="B387">
+        <v>626.32000000000005</v>
       </c>
       <c r="C387">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D387">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>22</v>
       </c>
-      <c r="B388" t="s">
-        <v>28</v>
+      <c r="B388">
+        <v>624.72</v>
       </c>
       <c r="C388">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D388">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>22</v>
       </c>
-      <c r="B389" t="s">
-        <v>28</v>
+      <c r="B389">
+        <v>624.72</v>
       </c>
       <c r="C389">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D389">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>22</v>
       </c>
-      <c r="B390" t="s">
-        <v>28</v>
+      <c r="B390">
+        <v>624.72</v>
       </c>
       <c r="C390">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D390">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>22</v>
       </c>
-      <c r="B391" t="s">
-        <v>28</v>
+      <c r="B391">
+        <v>624.72</v>
       </c>
       <c r="C391">
         <v>49</v>
@@ -5937,50 +5834,50 @@
       <c r="A392">
         <v>22</v>
       </c>
-      <c r="B392" t="s">
-        <v>28</v>
+      <c r="B392">
+        <v>624.72</v>
       </c>
       <c r="C392">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D392">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>22</v>
       </c>
-      <c r="B393" t="s">
-        <v>28</v>
+      <c r="B393">
+        <v>624.72</v>
       </c>
       <c r="C393">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D393">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>22</v>
       </c>
-      <c r="B394" t="s">
-        <v>28</v>
+      <c r="B394">
+        <v>624.72</v>
       </c>
       <c r="C394">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D394">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
-      <c r="B395" t="s">
-        <v>29</v>
+      <c r="B395">
+        <v>573.9</v>
       </c>
       <c r="C395">
         <v>53</v>
@@ -5993,36 +5890,36 @@
       <c r="A396">
         <v>13</v>
       </c>
-      <c r="B396" t="s">
-        <v>30</v>
+      <c r="B396">
+        <v>517.23</v>
       </c>
       <c r="C396">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D396">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>13</v>
       </c>
-      <c r="B397" t="s">
-        <v>30</v>
+      <c r="B397">
+        <v>517.23</v>
       </c>
       <c r="C397">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D397">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>13</v>
       </c>
-      <c r="B398" t="s">
-        <v>30</v>
+      <c r="B398">
+        <v>517.23</v>
       </c>
       <c r="C398">
         <v>38</v>
@@ -6035,36 +5932,36 @@
       <c r="A399">
         <v>13</v>
       </c>
-      <c r="B399" t="s">
-        <v>30</v>
+      <c r="B399">
+        <v>517.23</v>
       </c>
       <c r="C399">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D399">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>13</v>
       </c>
-      <c r="B400" t="s">
-        <v>30</v>
+      <c r="B400">
+        <v>517.23</v>
       </c>
       <c r="C400">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D400">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>19</v>
       </c>
-      <c r="B401" t="s">
-        <v>31</v>
+      <c r="B401">
+        <v>512.4</v>
       </c>
       <c r="C401">
         <v>41</v>
@@ -6077,36 +5974,36 @@
       <c r="A402">
         <v>26</v>
       </c>
-      <c r="B402" t="s">
-        <v>32</v>
+      <c r="B402">
+        <v>498.7</v>
       </c>
       <c r="C402">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D402">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>26</v>
       </c>
-      <c r="B403" t="s">
-        <v>32</v>
+      <c r="B403">
+        <v>498.7</v>
       </c>
       <c r="C403">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D403">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>26</v>
       </c>
-      <c r="B404" t="s">
-        <v>32</v>
+      <c r="B404">
+        <v>498.7</v>
       </c>
       <c r="C404">
         <v>43</v>
@@ -6119,218 +6016,218 @@
       <c r="A405">
         <v>26</v>
       </c>
-      <c r="B405" t="s">
-        <v>32</v>
+      <c r="B405">
+        <v>498.7</v>
       </c>
       <c r="C405">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D405">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>26</v>
       </c>
-      <c r="B406" t="s">
-        <v>32</v>
+      <c r="B406">
+        <v>498.7</v>
       </c>
       <c r="C406">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D406">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>21</v>
       </c>
-      <c r="B407" t="s">
-        <v>33</v>
+      <c r="B407">
+        <v>485.4</v>
       </c>
       <c r="C407">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D407">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>21</v>
       </c>
-      <c r="B408" t="s">
-        <v>33</v>
+      <c r="B408">
+        <v>485.4</v>
       </c>
       <c r="C408">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D408">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>21</v>
       </c>
-      <c r="B409" t="s">
-        <v>33</v>
+      <c r="B409">
+        <v>485.4</v>
       </c>
       <c r="C409">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D409">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>21</v>
       </c>
-      <c r="B410" t="s">
-        <v>33</v>
+      <c r="B410">
+        <v>485.4</v>
       </c>
       <c r="C410">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D410">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>21</v>
       </c>
-      <c r="B411" t="s">
-        <v>33</v>
+      <c r="B411">
+        <v>485.4</v>
       </c>
       <c r="C411">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D411">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>21</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412">
+        <v>485.4</v>
+      </c>
+      <c r="C412">
         <v>33</v>
       </c>
-      <c r="C412">
-        <v>94</v>
-      </c>
       <c r="D412">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>48</v>
       </c>
-      <c r="B413" t="s">
-        <v>34</v>
+      <c r="B413">
+        <v>415.54</v>
       </c>
       <c r="C413">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D413">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>48</v>
       </c>
-      <c r="B414" t="s">
-        <v>34</v>
+      <c r="B414">
+        <v>415.54</v>
       </c>
       <c r="C414">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D414">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>30</v>
       </c>
-      <c r="B415" t="s">
-        <v>35</v>
+      <c r="B415">
+        <v>385.68</v>
       </c>
       <c r="C415">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D415">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>30</v>
       </c>
-      <c r="B416" t="s">
-        <v>35</v>
+      <c r="B416">
+        <v>385.68</v>
       </c>
       <c r="C416">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D416">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>30</v>
       </c>
-      <c r="B417" t="s">
-        <v>35</v>
+      <c r="B417">
+        <v>385.68</v>
       </c>
       <c r="C417">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D417">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>30</v>
       </c>
-      <c r="B418" t="s">
-        <v>35</v>
+      <c r="B418">
+        <v>385.68</v>
       </c>
       <c r="C418">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D418">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>30</v>
       </c>
-      <c r="B419" t="s">
-        <v>35</v>
+      <c r="B419">
+        <v>385.68</v>
       </c>
       <c r="C419">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D419">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>30</v>
       </c>
-      <c r="B420" t="s">
-        <v>35</v>
+      <c r="B420">
+        <v>385.68</v>
       </c>
       <c r="C420">
         <v>63</v>
@@ -6343,120 +6240,120 @@
       <c r="A421">
         <v>30</v>
       </c>
-      <c r="B421" t="s">
-        <v>35</v>
+      <c r="B421">
+        <v>385.68</v>
       </c>
       <c r="C421">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D421">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>30</v>
       </c>
-      <c r="B422" t="s">
-        <v>35</v>
+      <c r="B422">
+        <v>385.68</v>
       </c>
       <c r="C422">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D422">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>30</v>
       </c>
-      <c r="B423" t="s">
-        <v>35</v>
+      <c r="B423">
+        <v>385.68</v>
       </c>
       <c r="C423">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D423">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>30</v>
       </c>
-      <c r="B424" t="s">
-        <v>35</v>
+      <c r="B424">
+        <v>385.68</v>
       </c>
       <c r="C424">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D424">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>30</v>
       </c>
-      <c r="B425" t="s">
-        <v>35</v>
+      <c r="B425">
+        <v>385.68</v>
       </c>
       <c r="C425">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D425">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1</v>
       </c>
-      <c r="B426" t="s">
-        <v>36</v>
+      <c r="B426">
+        <v>326.83</v>
       </c>
       <c r="C426">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D426">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1</v>
       </c>
-      <c r="B427" t="s">
-        <v>36</v>
+      <c r="B427">
+        <v>326.83</v>
       </c>
       <c r="C427">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D427">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1</v>
       </c>
-      <c r="B428" t="s">
-        <v>36</v>
+      <c r="B428">
+        <v>326.83</v>
       </c>
       <c r="C428">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D428">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1</v>
       </c>
-      <c r="B429" t="s">
-        <v>36</v>
+      <c r="B429">
+        <v>326.83</v>
       </c>
       <c r="C429">
         <v>40</v>
@@ -6469,78 +6366,78 @@
       <c r="A430">
         <v>1</v>
       </c>
-      <c r="B430" t="s">
-        <v>36</v>
+      <c r="B430">
+        <v>326.83</v>
       </c>
       <c r="C430">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D430">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1</v>
       </c>
-      <c r="B431" t="s">
-        <v>36</v>
+      <c r="B431">
+        <v>326.83</v>
       </c>
       <c r="C431">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D431">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1</v>
       </c>
-      <c r="B432" t="s">
-        <v>36</v>
+      <c r="B432">
+        <v>326.83</v>
       </c>
       <c r="C432">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D432">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>24</v>
       </c>
-      <c r="B433" t="s">
-        <v>37</v>
+      <c r="B433">
+        <v>315.04000000000002</v>
       </c>
       <c r="C433">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D433">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>24</v>
       </c>
-      <c r="B434" t="s">
-        <v>37</v>
+      <c r="B434">
+        <v>315.04000000000002</v>
       </c>
       <c r="C434">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D434">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>24</v>
       </c>
-      <c r="B435" t="s">
-        <v>37</v>
+      <c r="B435">
+        <v>315.04000000000002</v>
       </c>
       <c r="C435">
         <v>88</v>
@@ -6553,84 +6450,84 @@
       <c r="A436">
         <v>24</v>
       </c>
-      <c r="B436" t="s">
-        <v>37</v>
+      <c r="B436">
+        <v>315.04000000000002</v>
       </c>
       <c r="C436">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D436">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>24</v>
       </c>
-      <c r="B437" t="s">
-        <v>37</v>
+      <c r="B437">
+        <v>315.04000000000002</v>
       </c>
       <c r="C437">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D437">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>47</v>
       </c>
-      <c r="B438" t="s">
-        <v>38</v>
+      <c r="B438">
+        <v>233</v>
       </c>
       <c r="C438">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D438">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>47</v>
       </c>
-      <c r="B439" t="s">
-        <v>38</v>
+      <c r="B439">
+        <v>233</v>
       </c>
       <c r="C439">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D439">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>47</v>
       </c>
-      <c r="B440" t="s">
-        <v>38</v>
+      <c r="B440">
+        <v>233</v>
       </c>
       <c r="C440">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D440">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>47</v>
       </c>
-      <c r="B441" t="s">
-        <v>38</v>
+      <c r="B441">
+        <v>233</v>
       </c>
       <c r="C441">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D441">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
